--- a/sources/EDT-Raposo-sallinas5.xlsx
+++ b/sources/EDT-Raposo-sallinas5.xlsx
@@ -33407,7 +33407,7 @@
     <row r="1">
       <c r="A1" s="277" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="K1" s="180" t="inlineStr">
